--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03C868B-4745-4E6D-975F-9F48B48A63BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAA188-3BF3-449D-AC0E-100EC1417579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>problem</t>
   </si>
@@ -1075,6 +1075,72 @@
         <charset val="204"/>
       </rPr>
       <t>31.54%</t>
+    </r>
+  </si>
+  <si>
+    <t>22 generate parenthesis</t>
+  </si>
+  <si>
+    <t>1 час</t>
+  </si>
+  <si>
+    <r>
+      <t>528 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5.17%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.5 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>87.42%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
     </r>
   </si>
 </sst>
@@ -1425,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2050,8 +2116,34 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAA188-3BF3-449D-AC0E-100EC1417579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C66A9E-7535-4701-A69A-FF047CDF2F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>problem</t>
   </si>
@@ -1141,6 +1141,62 @@
         <charset val="204"/>
       </rPr>
       <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>23 mergeKLists</t>
+  </si>
+  <si>
+    <t>кучи и пирамиды</t>
+  </si>
+  <si>
+    <r>
+      <t>92 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>95.01%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18.4 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>28.29%</t>
     </r>
   </si>
 </sst>
@@ -1492,7 +1548,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2145,8 +2201,34 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C66A9E-7535-4701-A69A-FF047CDF2F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A3D4C-E242-46D9-A95A-9E7A0B3E4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>problem</t>
   </si>
@@ -1197,6 +1197,82 @@
         <charset val="204"/>
       </rPr>
       <t>28.29%</t>
+    </r>
+  </si>
+  <si>
+    <t>24 ugly numbers</t>
+  </si>
+  <si>
+    <t>2 часа</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>144 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>79.81%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.4 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23.31%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
     </r>
   </si>
 </sst>
@@ -1547,7 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2230,8 +2306,34 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A3D4C-E242-46D9-A95A-9E7A0B3E4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EB1EA-3C74-4831-BBDA-E46D40D32E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>problem</t>
   </si>
@@ -1274,6 +1274,59 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>14.2 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>76.64%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>69.36%</t>
+    </r>
+  </si>
+  <si>
+    <t>25 Swap Nodes</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1677,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2335,8 +2388,34 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44467</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EB1EA-3C74-4831-BBDA-E46D40D32E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F140B1-F702-4D3B-8EB7-C51C8C593DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>problem</t>
   </si>
@@ -1200,9 +1200,6 @@
     </r>
   </si>
   <si>
-    <t>24 ugly numbers</t>
-  </si>
-  <si>
     <t>2 часа</t>
   </si>
   <si>
@@ -1326,7 +1323,73 @@
     </r>
   </si>
   <si>
-    <t>25 Swap Nodes</t>
+    <t>24 Swap Nodes</t>
+  </si>
+  <si>
+    <t>ugly numbers</t>
+  </si>
+  <si>
+    <t>25 reverseKGroup</t>
+  </si>
+  <si>
+    <r>
+      <t>92 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7.20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.2 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>74.50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1676,8 +1739,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2361,13 +2424,13 @@
     </row>
     <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B25" s="3">
         <v>44462</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2382,21 +2445,21 @@
         <v>25</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3">
         <v>44467</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2411,14 +2474,40 @@
         <v>25</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F140B1-F702-4D3B-8EB7-C51C8C593DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B7DBA-A595-462A-A95B-D21F1698221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t>problem</t>
   </si>
@@ -1379,6 +1379,69 @@
         <charset val="204"/>
       </rPr>
       <t>74.50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>26 removeDuplicates</t>
+  </si>
+  <si>
+    <r>
+      <t>130 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>34.43%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.6 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>45.37%</t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1803,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2509,8 +2572,34 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B7DBA-A595-462A-A95B-D21F1698221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03243863-0272-4976-9D0A-7736758E7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>problem</t>
   </si>
@@ -1452,6 +1452,72 @@
         <charset val="204"/>
       </rPr>
       <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>27 remove_Element</t>
+  </si>
+  <si>
+    <t>1ч 30 мин</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>28 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>93.96%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.2 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>47.40%</t>
     </r>
   </si>
 </sst>
@@ -1802,8 +1868,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2457,7 @@
       <c r="G21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -2420,7 +2486,7 @@
       <c r="G22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>103</v>
       </c>
       <c r="I22" s="16" t="s">
@@ -2478,7 +2544,7 @@
       <c r="G24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="I24" s="16" t="s">
@@ -2507,7 +2573,7 @@
       <c r="G25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>114</v>
       </c>
       <c r="I25" s="16" t="s">
@@ -2536,7 +2602,7 @@
       <c r="G26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>117</v>
       </c>
       <c r="I26" s="16" t="s">
@@ -2601,8 +2667,34 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44471</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03243863-0272-4976-9D0A-7736758E7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712305F0-6E93-47C4-9989-01C6085125AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
   <si>
     <t>problem</t>
   </si>
@@ -1518,6 +1518,72 @@
         <charset val="204"/>
       </rPr>
       <t>47.40%</t>
+    </r>
+  </si>
+  <si>
+    <t>28 Поиск подстроки в строке</t>
+  </si>
+  <si>
+    <t>13 мин</t>
+  </si>
+  <si>
+    <r>
+      <t>68 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>31.82%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.5 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>32.32%</t>
     </r>
   </si>
 </sst>
@@ -1869,7 +1935,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2696,8 +2762,34 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44472</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712305F0-6E93-47C4-9989-01C6085125AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95319D6D-E4E3-4459-ABC7-9C4DF9FBB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
   <si>
     <t>problem</t>
   </si>
@@ -1584,6 +1584,62 @@
         <charset val="204"/>
       </rPr>
       <t>32.32%</t>
+    </r>
+  </si>
+  <si>
+    <t>29 Деление 2х целых чисел (столбиком)</t>
+  </si>
+  <si>
+    <t>внимательно читать условие</t>
+  </si>
+  <si>
+    <r>
+      <t>36 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>60.53%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.3 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>53.62%</t>
     </r>
   </si>
 </sst>
@@ -1935,7 +1991,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2791,8 +2847,34 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44478</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95319D6D-E4E3-4459-ABC7-9C4DF9FBB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9339A5-DB85-4446-BC14-171218AD229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
   <si>
     <t>problem</t>
   </si>
@@ -1641,6 +1641,74 @@
       </rPr>
       <t>53.62%</t>
     </r>
+  </si>
+  <si>
+    <t>30 Поиск подстроки из нескольких слов</t>
+  </si>
+  <si>
+    <r>
+      <t>1488 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>24.87%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.5 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>79.60%</t>
+    </r>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1713,8 +1781,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFB800"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF2D55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1733,6 +1815,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1746,12 +1846,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1763,13 +1862,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1988,24 +2099,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,868 +2126,985 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="18">
         <v>44313</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="24">
         <v>44320</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="24">
         <v>44321</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="20">
         <v>44322</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="24">
         <v>44323</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="24">
         <v>44323</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="24">
         <v>44324</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="24">
         <v>44324</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="16">
         <v>44326</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="16">
         <v>44326</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B12" s="24">
         <v>44327</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D13">
+      <c r="D12" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B13" s="24">
         <v>44339</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D14">
+      <c r="D13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B14" s="16">
         <v>44341</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D15">
+      <c r="D14" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B15" s="16">
         <v>44342</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D16">
+      <c r="D15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J15" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A16" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D17">
+      <c r="D16" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="J16" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="17" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B17" s="24">
         <v>44425</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C17" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D18">
+      <c r="D17" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="F17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="J17" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="18" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A18" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B18" s="24">
         <v>44427</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C18" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D19">
+      <c r="D18" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="24">
+        <v>44434</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44434</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44434</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20">
+      <c r="F20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44437</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="24">
+        <v>44460</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="20">
+        <v>44461</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="24">
+        <v>44462</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44434</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="F24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="24">
+        <v>44467</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="20">
+        <v>44470</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44470</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
+      <c r="D27" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44471</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="16">
+        <v>44472</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44437</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="F29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A30" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="24">
+        <v>44478</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A31" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="20">
+        <v>44479</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44460</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44461</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24">
+      <c r="D31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44462</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44467</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44471</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44472</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44478</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5779,9 +6007,6 @@
     </row>
     <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="3"/>
-    </row>
-    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1000" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5803,66 +6028,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9339A5-DB85-4446-BC14-171218AD229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BEE21-F2CC-4CFF-99E3-D8FAA51D0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="149">
   <si>
     <t>problem</t>
   </si>
@@ -1709,6 +1709,59 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>31 longestValidParentheses</t>
+  </si>
+  <si>
+    <r>
+      <t>52 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>46.05%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>6.53%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2101,8 +2154,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3104,8 +3157,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="20">
+        <v>44484</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BEE21-F2CC-4CFF-99E3-D8FAA51D0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53705BD9-B3AD-4193-803D-C7753C35823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="152">
   <si>
     <t>problem</t>
   </si>
@@ -1761,6 +1761,59 @@
         <charset val="204"/>
       </rPr>
       <t>6.53%</t>
+    </r>
+  </si>
+  <si>
+    <t>32 nextPermutation</t>
+  </si>
+  <si>
+    <r>
+      <t>14.3 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>51.88%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>40.78%</t>
     </r>
   </si>
 </sst>
@@ -2154,7 +2207,7 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -3189,52 +3242,81 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="24">
+        <v>44488</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53705BD9-B3AD-4193-803D-C7753C35823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CE554-965F-44EE-AE49-04656BAE5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
   <si>
     <t>problem</t>
   </si>
@@ -1815,6 +1815,59 @@
       </rPr>
       <t>40.78%</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>55 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>33.05%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.6 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>54.51%</t>
+    </r>
+  </si>
+  <si>
+    <t>33 search-in-rotated-sorted-array</t>
   </si>
 </sst>
 </file>
@@ -2207,8 +2260,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3274,8 +3327,37 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
+    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A34" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="24">
+        <v>44492</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CE554-965F-44EE-AE49-04656BAE5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962730C2-0FDF-4A9C-A427-25F81FED9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
   <si>
     <t>problem</t>
   </si>
@@ -1868,6 +1868,59 @@
   </si>
   <si>
     <t>33 search-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>34_Find_First_and_Last_Position</t>
+  </si>
+  <si>
+    <r>
+      <t>15.2 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>99.83%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>88 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>55.33%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2260,8 +2313,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3359,8 +3412,37 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
+    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A35" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44510</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962730C2-0FDF-4A9C-A427-25F81FED9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E403BBB-D6D1-46D5-AC51-589624A7F44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
   <si>
     <t>problem</t>
   </si>
@@ -1921,6 +1921,69 @@
       </rPr>
       <t>55.33%</t>
     </r>
+  </si>
+  <si>
+    <t>35 Search_and_insert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4.8 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>94.77%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>51.55%</t>
+    </r>
+  </si>
+  <si>
+    <t>bst, АиСД</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2376,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3444,8 +3507,34 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
+    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A36" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44527</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E403BBB-D6D1-46D5-AC51-589624A7F44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EC0C1-A8A1-4F74-A440-4AA648D3D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
   <si>
     <t>problem</t>
   </si>
@@ -1984,6 +1984,59 @@
   </si>
   <si>
     <t>bst, АиСД</t>
+  </si>
+  <si>
+    <t>36. Valid sudocu</t>
+  </si>
+  <si>
+    <r>
+      <t>96 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>75.72%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.4 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>43.71%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2121,7 +2174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2156,6 +2209,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2377,7 +2432,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3479,7 +3534,7 @@
       <c r="A35" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="24">
         <v>44510</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -3508,36 +3563,68 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="16">
         <v>44527</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E36">
+      <c r="D36" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="17">
         <v>2</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="F36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
+    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A37" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="24">
+        <v>44540</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EC0C1-A8A1-4F74-A440-4AA648D3D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF21FD9-354E-47D6-BF02-4465D0F19C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="171">
   <si>
     <t>problem</t>
   </si>
@@ -2036,6 +2036,88 @@
         <charset val="204"/>
       </rPr>
       <t>43.71%</t>
+    </r>
+  </si>
+  <si>
+    <t>37. Sudocu solver(recursive solution, not hard levels)</t>
+  </si>
+  <si>
+    <t>3 дня</t>
+  </si>
+  <si>
+    <t>hard - super hard</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <r>
+      <t>581 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>32.82%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.6 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>28.06%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
     </r>
   </si>
 </sst>
@@ -2174,7 +2256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2211,6 +2293,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2431,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3626,8 +3709,37 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
+    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A38" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="30">
+        <v>44546</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="19">
+        <v>2</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF21FD9-354E-47D6-BF02-4465D0F19C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC27F4-258B-4657-A9C5-F54FCB2770E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="174">
   <si>
     <t>problem</t>
   </si>
@@ -2118,6 +2118,59 @@
         <charset val="204"/>
       </rPr>
       <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>38. CountAndSay</t>
+  </si>
+  <si>
+    <r>
+      <t>68 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>14.85%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.4 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>53.67%</t>
     </r>
   </si>
 </sst>
@@ -2515,7 +2568,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3741,8 +3794,28 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
+    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A39" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44546</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC27F4-258B-4657-A9C5-F54FCB2770E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F493EB6-F812-4784-9B8D-B1B843F0BD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="178">
   <si>
     <t>problem</t>
   </si>
@@ -2171,6 +2171,62 @@
         <charset val="204"/>
       </rPr>
       <t>53.67%</t>
+    </r>
+  </si>
+  <si>
+    <t>41. firstMissingPositive</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <r>
+      <t>832 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>81.14%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>69 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>19.39%</t>
     </r>
   </si>
 </sst>
@@ -2181,7 +2237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2258,6 +2314,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2309,7 +2372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2347,6 +2410,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2567,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3817,8 +3881,37 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
+    <row r="40" spans="1:10" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+      <c r="A40" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="16">
+        <v>44562</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="17">
+        <v>3</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F493EB6-F812-4784-9B8D-B1B843F0BD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC7B6F-25CA-4EEB-923A-CB738BB7EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="181">
   <si>
     <t>problem</t>
   </si>
@@ -2228,6 +2228,59 @@
       </rPr>
       <t>19.39%</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>111 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>29.66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.7 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>29.25%</t>
+    </r>
+  </si>
+  <si>
+    <t>42. Задача о водопадах</t>
   </si>
 </sst>
 </file>
@@ -2631,8 +2684,8 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3913,8 +3966,25 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44579</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programms\programming\Python\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC7B6F-25CA-4EEB-923A-CB738BB7EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF26DF-B6DF-4D8E-9D9B-644B225098D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
   <si>
     <t>problem</t>
   </si>
@@ -2281,6 +2281,59 @@
   </si>
   <si>
     <t>42. Задача о водопадах</t>
+  </si>
+  <si>
+    <t>5 часов</t>
+  </si>
+  <si>
+    <r>
+      <t>14 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>98.98%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>252 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>17.50%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2685,7 +2738,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3986,8 +4039,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+      <c r="B42" s="3">
+        <v>44588</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="190">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2804,6 +2804,15 @@
   </si>
   <si>
     <t xml:space="preserve">20.2 MB, less than 6.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46. Перестановки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 ms Beats 77.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory 14 MB Beats 84.8%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -2852,7 +2861,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2935,12 +2944,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="22"/>
@@ -3035,7 +3038,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3148,11 +3151,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3160,11 +3159,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3247,17 +3246,17 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J52" activeCellId="0" sqref="J52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44:J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="33"/>
@@ -4550,7 +4549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="25" t="n">
         <v>44588</v>
       </c>
@@ -4590,9 +4589,37 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="25"/>
-      <c r="J44" s="28"/>
+    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="25" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="25"/>
@@ -7478,75 +7505,75 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="I44:J44 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>176</v>
+      <c r="A2" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>177</v>
+      <c r="A3" s="30" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>178</v>
+      <c r="A4" s="30" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>179</v>
+      <c r="A5" s="30" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>180</v>
+      <c r="A6" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>181</v>
+      <c r="A7" s="30" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>182</v>
+      <c r="A8" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>183</v>
+      <c r="A9" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>184</v>
+      <c r="A10" s="30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>185</v>
+      <c r="A11" s="30" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="30"/>
+      <c r="A12" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="194">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2813,6 +2813,18 @@
   </si>
   <si>
     <t xml:space="preserve">Memory 14 MB Beats 84.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47. Перестановки2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 159 ms Beats 34.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory 14 MB Beats 96.3%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3247,10 +3259,10 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44:J44"/>
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.71"/>
@@ -4621,8 +4633,28 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25"/>
+    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="25" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="25"/>
@@ -7505,73 +7537,73 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="I44:J44 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H12" s="29"/>
     </row>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="195">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2591,6 +2591,9 @@
       </rPr>
       <t xml:space="preserve">53.67%</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">39. Сумма престановок</t>
   </si>
   <si>
     <t xml:space="preserve">41. firstMissingPositive</t>
@@ -3050,132 +3053,136 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3252,4276 +3259,4290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J999"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>44313</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44320</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44321</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="12" t="n">
         <v>44322</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44323</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44323</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44324</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>44324</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="18" t="n">
         <v>44326</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="F10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="18" t="n">
         <v>44326</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>44327</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>44339</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="F13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="18" t="n">
         <v>44341</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="18" t="n">
         <v>44342</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="F15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="F16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>44425</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="F17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>44427</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="G18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>44434</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="F19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="18" t="n">
         <v>44434</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="F20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="18" t="n">
         <v>44437</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="F21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>44460</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21" t="s">
+      <c r="F22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="12" t="n">
         <v>44461</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>44462</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="16"/>
+      <c r="E24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="19" t="s">
+      <c r="G24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>44467</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="F25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="12" t="n">
         <v>44470</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="21" t="s">
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="17" t="n">
+      <c r="B27" s="18" t="n">
         <v>44470</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="F27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="18" t="n">
         <v>44471</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="F28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="17" t="n">
+      <c r="B29" s="18" t="n">
         <v>44472</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="21" t="s">
+      <c r="F29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>44478</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="12" t="n">
         <v>44479</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="16" t="s">
+      <c r="F31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="12" t="n">
         <v>44484</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="21" t="s">
+      <c r="F32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="9" t="n">
         <v>44488</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="21" t="s">
+      <c r="F33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="9" t="n">
         <v>44492</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="21" t="s">
+      <c r="F34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="9" t="n">
         <v>44510</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="21" t="s">
+      <c r="F35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="18" t="n">
         <v>44527</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="18" t="s">
+      <c r="F36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="24" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="9" t="n">
         <v>44540</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="F37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="24" t="n">
+      <c r="B38" s="25" t="n">
         <v>44546</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="25" t="n">
+      <c r="B39" s="26" t="n">
         <v>44546</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="17" t="n">
+      <c r="B40" s="26" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" s="4" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="18" t="n">
         <v>44562</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="3" t="n">
+      <c r="D41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I41" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="26" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="J40" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="25" t="n">
-        <v>44579</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I41" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="I42" s="22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="25" t="n">
+      <c r="J42" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="26" t="n">
         <v>44588</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="I43" s="22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="J43" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="25" t="n">
+    </row>
+    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="26" t="n">
         <v>44824</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I43" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="J43" s="27" t="s">
+      <c r="I44" s="28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="J44" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="25" t="n">
+    </row>
+    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="26" t="n">
         <v>44915</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" s="21" t="s">
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="J45" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="25" t="n">
+    </row>
+    <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="26" t="n">
         <v>44915</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="21" t="s">
+      <c r="I46" s="22" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="25"/>
+      <c r="J46" s="22" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="25"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25"/>
+      <c r="B50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="25"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="25"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="25"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="25"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="25"/>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="25"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="25"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="25"/>
+      <c r="B59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="25"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="25"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="25"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="25"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="25"/>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="25"/>
+      <c r="B69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="25"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="25"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="25"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="25"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="25"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="25"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="25"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="25"/>
+      <c r="B78" s="26"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="25"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="25"/>
+      <c r="B80" s="26"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="25"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="25"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="25"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="25"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="25"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="25"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="25"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="25"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="25"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="25"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="25"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="25"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="25"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="25"/>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="25"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="25"/>
+      <c r="B96" s="26"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="25"/>
+      <c r="B97" s="26"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="25"/>
+      <c r="B98" s="26"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="25"/>
+      <c r="B99" s="26"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="25"/>
+      <c r="B100" s="26"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="25"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="25"/>
+      <c r="B102" s="26"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="25"/>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="25"/>
+      <c r="B104" s="26"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="25"/>
+      <c r="B105" s="26"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="25"/>
+      <c r="B106" s="26"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="25"/>
+      <c r="B107" s="26"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="25"/>
+      <c r="B108" s="26"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="25"/>
+      <c r="B109" s="26"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="25"/>
+      <c r="B110" s="26"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="25"/>
+      <c r="B111" s="26"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="25"/>
+      <c r="B112" s="26"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="25"/>
+      <c r="B113" s="26"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="25"/>
+      <c r="B114" s="26"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="25"/>
+      <c r="B115" s="26"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="25"/>
+      <c r="B116" s="26"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="25"/>
+      <c r="B117" s="26"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="25"/>
+      <c r="B118" s="26"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="25"/>
+      <c r="B119" s="26"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="25"/>
+      <c r="B120" s="26"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="25"/>
+      <c r="B121" s="26"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="25"/>
+      <c r="B122" s="26"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="25"/>
+      <c r="B123" s="26"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="25"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="25"/>
+      <c r="B125" s="26"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="25"/>
+      <c r="B126" s="26"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="25"/>
+      <c r="B127" s="26"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="25"/>
+      <c r="B128" s="26"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="25"/>
+      <c r="B129" s="26"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="25"/>
+      <c r="B130" s="26"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="25"/>
+      <c r="B131" s="26"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="25"/>
+      <c r="B132" s="26"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="25"/>
+      <c r="B133" s="26"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="25"/>
+      <c r="B134" s="26"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="25"/>
+      <c r="B135" s="26"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="25"/>
+      <c r="B136" s="26"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="25"/>
+      <c r="B137" s="26"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="25"/>
+      <c r="B138" s="26"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="25"/>
+      <c r="B139" s="26"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="25"/>
+      <c r="B140" s="26"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="25"/>
+      <c r="B141" s="26"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="25"/>
+      <c r="B142" s="26"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="25"/>
+      <c r="B143" s="26"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="25"/>
+      <c r="B144" s="26"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="25"/>
+      <c r="B145" s="26"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="25"/>
+      <c r="B146" s="26"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="25"/>
+      <c r="B147" s="26"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="25"/>
+      <c r="B148" s="26"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="25"/>
+      <c r="B149" s="26"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="25"/>
+      <c r="B150" s="26"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="25"/>
+      <c r="B151" s="26"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="25"/>
+      <c r="B152" s="26"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="25"/>
+      <c r="B153" s="26"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="25"/>
+      <c r="B154" s="26"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="25"/>
+      <c r="B155" s="26"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="25"/>
+      <c r="B156" s="26"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="25"/>
+      <c r="B157" s="26"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="25"/>
+      <c r="B158" s="26"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="25"/>
+      <c r="B159" s="26"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="25"/>
+      <c r="B160" s="26"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="25"/>
+      <c r="B161" s="26"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="25"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="25"/>
+      <c r="B163" s="26"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="25"/>
+      <c r="B164" s="26"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="25"/>
+      <c r="B165" s="26"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="25"/>
+      <c r="B166" s="26"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="25"/>
+      <c r="B167" s="26"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="25"/>
+      <c r="B168" s="26"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="25"/>
+      <c r="B169" s="26"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="25"/>
+      <c r="B170" s="26"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="25"/>
+      <c r="B171" s="26"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="25"/>
+      <c r="B172" s="26"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="25"/>
+      <c r="B173" s="26"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="25"/>
+      <c r="B174" s="26"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="25"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="25"/>
+      <c r="B176" s="26"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="25"/>
+      <c r="B177" s="26"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="25"/>
+      <c r="B178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="25"/>
+      <c r="B179" s="26"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="25"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="25"/>
+      <c r="B181" s="26"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="25"/>
+      <c r="B182" s="26"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="25"/>
+      <c r="B183" s="26"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="25"/>
+      <c r="B184" s="26"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="25"/>
+      <c r="B185" s="26"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="25"/>
+      <c r="B186" s="26"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="25"/>
+      <c r="B187" s="26"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="25"/>
+      <c r="B188" s="26"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="25"/>
+      <c r="B189" s="26"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="25"/>
+      <c r="B190" s="26"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="25"/>
+      <c r="B191" s="26"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="25"/>
+      <c r="B192" s="26"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="25"/>
+      <c r="B193" s="26"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="25"/>
+      <c r="B194" s="26"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="25"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="25"/>
+      <c r="B196" s="26"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="25"/>
+      <c r="B197" s="26"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="25"/>
+      <c r="B198" s="26"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="25"/>
+      <c r="B199" s="26"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="25"/>
+      <c r="B200" s="26"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="25"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="25"/>
+      <c r="B202" s="26"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="25"/>
+      <c r="B203" s="26"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="25"/>
+      <c r="B204" s="26"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="25"/>
+      <c r="B205" s="26"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="25"/>
+      <c r="B206" s="26"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="25"/>
+      <c r="B207" s="26"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="25"/>
+      <c r="B208" s="26"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="25"/>
+      <c r="B209" s="26"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="25"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="25"/>
+      <c r="B211" s="26"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="25"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="25"/>
+      <c r="B213" s="26"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="25"/>
+      <c r="B214" s="26"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="25"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="25"/>
+      <c r="B216" s="26"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="25"/>
+      <c r="B217" s="26"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="25"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="25"/>
+      <c r="B219" s="26"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="25"/>
+      <c r="B220" s="26"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="25"/>
+      <c r="B221" s="26"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="25"/>
+      <c r="B222" s="26"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="25"/>
+      <c r="B223" s="26"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="25"/>
+      <c r="B224" s="26"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="25"/>
+      <c r="B225" s="26"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="25"/>
+      <c r="B226" s="26"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="25"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="25"/>
+      <c r="B228" s="26"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="25"/>
+      <c r="B229" s="26"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="25"/>
+      <c r="B230" s="26"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="25"/>
+      <c r="B231" s="26"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="25"/>
+      <c r="B232" s="26"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="25"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="25"/>
+      <c r="B234" s="26"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="25"/>
+      <c r="B235" s="26"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="25"/>
+      <c r="B236" s="26"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="25"/>
+      <c r="B237" s="26"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="25"/>
+      <c r="B238" s="26"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="25"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="25"/>
+      <c r="B240" s="26"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="25"/>
+      <c r="B241" s="26"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="25"/>
+      <c r="B242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="25"/>
+      <c r="B243" s="26"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="25"/>
+      <c r="B244" s="26"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="25"/>
+      <c r="B245" s="26"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="25"/>
+      <c r="B246" s="26"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="25"/>
+      <c r="B247" s="26"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="25"/>
+      <c r="B248" s="26"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="25"/>
+      <c r="B249" s="26"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="25"/>
+      <c r="B250" s="26"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="25"/>
+      <c r="B251" s="26"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="25"/>
+      <c r="B252" s="26"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="25"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="25"/>
+      <c r="B254" s="26"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="25"/>
+      <c r="B255" s="26"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="25"/>
+      <c r="B256" s="26"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="25"/>
+      <c r="B257" s="26"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="25"/>
+      <c r="B258" s="26"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="25"/>
+      <c r="B259" s="26"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="25"/>
+      <c r="B260" s="26"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="25"/>
+      <c r="B261" s="26"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="25"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="25"/>
+      <c r="B263" s="26"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="25"/>
+      <c r="B264" s="26"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="25"/>
+      <c r="B265" s="26"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="25"/>
+      <c r="B266" s="26"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="25"/>
+      <c r="B267" s="26"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="25"/>
+      <c r="B268" s="26"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="25"/>
+      <c r="B269" s="26"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="25"/>
+      <c r="B270" s="26"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="25"/>
+      <c r="B271" s="26"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="25"/>
+      <c r="B272" s="26"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="25"/>
+      <c r="B273" s="26"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="25"/>
+      <c r="B274" s="26"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="25"/>
+      <c r="B275" s="26"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="25"/>
+      <c r="B276" s="26"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="25"/>
+      <c r="B277" s="26"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="25"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="25"/>
+      <c r="B279" s="26"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="25"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="25"/>
+      <c r="B281" s="26"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="25"/>
+      <c r="B282" s="26"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="25"/>
+      <c r="B283" s="26"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="25"/>
+      <c r="B284" s="26"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="25"/>
+      <c r="B285" s="26"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="25"/>
+      <c r="B286" s="26"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="25"/>
+      <c r="B287" s="26"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="25"/>
+      <c r="B288" s="26"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="25"/>
+      <c r="B289" s="26"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="25"/>
+      <c r="B290" s="26"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="25"/>
+      <c r="B291" s="26"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="25"/>
+      <c r="B292" s="26"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="25"/>
+      <c r="B293" s="26"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="25"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="25"/>
+      <c r="B295" s="26"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="25"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="25"/>
+      <c r="B297" s="26"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="25"/>
+      <c r="B298" s="26"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="25"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="25"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="25"/>
+      <c r="B301" s="26"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="25"/>
+      <c r="B302" s="26"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="25"/>
+      <c r="B303" s="26"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="25"/>
+      <c r="B304" s="26"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="25"/>
+      <c r="B305" s="26"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="25"/>
+      <c r="B306" s="26"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="25"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="25"/>
+      <c r="B308" s="26"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="25"/>
+      <c r="B309" s="26"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="25"/>
+      <c r="B310" s="26"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="25"/>
+      <c r="B311" s="26"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="25"/>
+      <c r="B312" s="26"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="25"/>
+      <c r="B313" s="26"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="25"/>
+      <c r="B314" s="26"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="25"/>
+      <c r="B315" s="26"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="25"/>
+      <c r="B316" s="26"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="25"/>
+      <c r="B317" s="26"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="25"/>
+      <c r="B318" s="26"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="25"/>
+      <c r="B319" s="26"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="25"/>
+      <c r="B320" s="26"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="25"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="25"/>
+      <c r="B322" s="26"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="25"/>
+      <c r="B323" s="26"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="25"/>
+      <c r="B324" s="26"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="25"/>
+      <c r="B325" s="26"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="25"/>
+      <c r="B326" s="26"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="25"/>
+      <c r="B327" s="26"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="25"/>
+      <c r="B328" s="26"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="25"/>
+      <c r="B329" s="26"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="25"/>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="25"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="25"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="25"/>
+      <c r="B333" s="26"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="25"/>
+      <c r="B334" s="26"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="25"/>
+      <c r="B335" s="26"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="25"/>
+      <c r="B336" s="26"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="25"/>
+      <c r="B337" s="26"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="25"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="25"/>
+      <c r="B339" s="26"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B340" s="25"/>
+      <c r="B340" s="26"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="25"/>
+      <c r="B341" s="26"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="25"/>
+      <c r="B342" s="26"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="25"/>
+      <c r="B343" s="26"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="25"/>
+      <c r="B344" s="26"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="25"/>
+      <c r="B345" s="26"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="25"/>
+      <c r="B346" s="26"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="25"/>
+      <c r="B347" s="26"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="25"/>
+      <c r="B348" s="26"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="25"/>
+      <c r="B349" s="26"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="25"/>
+      <c r="B350" s="26"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="25"/>
+      <c r="B351" s="26"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="25"/>
+      <c r="B352" s="26"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B353" s="25"/>
+      <c r="B353" s="26"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="25"/>
+      <c r="B354" s="26"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="25"/>
+      <c r="B355" s="26"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="25"/>
+      <c r="B356" s="26"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="25"/>
+      <c r="B357" s="26"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B358" s="25"/>
+      <c r="B358" s="26"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="25"/>
+      <c r="B359" s="26"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="25"/>
+      <c r="B360" s="26"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B361" s="25"/>
+      <c r="B361" s="26"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B362" s="25"/>
+      <c r="B362" s="26"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="25"/>
+      <c r="B363" s="26"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B364" s="25"/>
+      <c r="B364" s="26"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="25"/>
+      <c r="B365" s="26"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B366" s="25"/>
+      <c r="B366" s="26"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B367" s="25"/>
+      <c r="B367" s="26"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B368" s="25"/>
+      <c r="B368" s="26"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="25"/>
+      <c r="B369" s="26"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B370" s="25"/>
+      <c r="B370" s="26"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="25"/>
+      <c r="B371" s="26"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B372" s="25"/>
+      <c r="B372" s="26"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B373" s="25"/>
+      <c r="B373" s="26"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="25"/>
+      <c r="B374" s="26"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B375" s="25"/>
+      <c r="B375" s="26"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B376" s="25"/>
+      <c r="B376" s="26"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B377" s="25"/>
+      <c r="B377" s="26"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="25"/>
+      <c r="B378" s="26"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B379" s="25"/>
+      <c r="B379" s="26"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="25"/>
+      <c r="B380" s="26"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B381" s="25"/>
+      <c r="B381" s="26"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="25"/>
+      <c r="B382" s="26"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B383" s="25"/>
+      <c r="B383" s="26"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="25"/>
+      <c r="B384" s="26"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B385" s="25"/>
+      <c r="B385" s="26"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="25"/>
+      <c r="B386" s="26"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="25"/>
+      <c r="B387" s="26"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B388" s="25"/>
+      <c r="B388" s="26"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B389" s="25"/>
+      <c r="B389" s="26"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="25"/>
+      <c r="B390" s="26"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="25"/>
+      <c r="B391" s="26"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="25"/>
+      <c r="B392" s="26"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B393" s="25"/>
+      <c r="B393" s="26"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B394" s="25"/>
+      <c r="B394" s="26"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="25"/>
+      <c r="B395" s="26"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B396" s="25"/>
+      <c r="B396" s="26"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B397" s="25"/>
+      <c r="B397" s="26"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="25"/>
+      <c r="B398" s="26"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B399" s="25"/>
+      <c r="B399" s="26"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="25"/>
+      <c r="B400" s="26"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="25"/>
+      <c r="B401" s="26"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B402" s="25"/>
+      <c r="B402" s="26"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="25"/>
+      <c r="B403" s="26"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B404" s="25"/>
+      <c r="B404" s="26"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B405" s="25"/>
+      <c r="B405" s="26"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B406" s="25"/>
+      <c r="B406" s="26"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B407" s="25"/>
+      <c r="B407" s="26"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="25"/>
+      <c r="B408" s="26"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="25"/>
+      <c r="B409" s="26"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="25"/>
+      <c r="B410" s="26"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B411" s="25"/>
+      <c r="B411" s="26"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="25"/>
+      <c r="B412" s="26"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B413" s="25"/>
+      <c r="B413" s="26"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B414" s="25"/>
+      <c r="B414" s="26"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="25"/>
+      <c r="B415" s="26"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B416" s="25"/>
+      <c r="B416" s="26"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B417" s="25"/>
+      <c r="B417" s="26"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="25"/>
+      <c r="B418" s="26"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B419" s="25"/>
+      <c r="B419" s="26"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B420" s="25"/>
+      <c r="B420" s="26"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B421" s="25"/>
+      <c r="B421" s="26"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B422" s="25"/>
+      <c r="B422" s="26"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B423" s="25"/>
+      <c r="B423" s="26"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="25"/>
+      <c r="B424" s="26"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="25"/>
+      <c r="B425" s="26"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B426" s="25"/>
+      <c r="B426" s="26"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="25"/>
+      <c r="B427" s="26"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="25"/>
+      <c r="B428" s="26"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B429" s="25"/>
+      <c r="B429" s="26"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B430" s="25"/>
+      <c r="B430" s="26"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="25"/>
+      <c r="B431" s="26"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B432" s="25"/>
+      <c r="B432" s="26"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B433" s="25"/>
+      <c r="B433" s="26"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B434" s="25"/>
+      <c r="B434" s="26"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B435" s="25"/>
+      <c r="B435" s="26"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="25"/>
+      <c r="B436" s="26"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="25"/>
+      <c r="B437" s="26"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B438" s="25"/>
+      <c r="B438" s="26"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B439" s="25"/>
+      <c r="B439" s="26"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="25"/>
+      <c r="B440" s="26"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B441" s="25"/>
+      <c r="B441" s="26"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B442" s="25"/>
+      <c r="B442" s="26"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B443" s="25"/>
+      <c r="B443" s="26"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B444" s="25"/>
+      <c r="B444" s="26"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="25"/>
+      <c r="B445" s="26"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="25"/>
+      <c r="B446" s="26"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="25"/>
+      <c r="B447" s="26"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="25"/>
+      <c r="B448" s="26"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="25"/>
+      <c r="B449" s="26"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B450" s="25"/>
+      <c r="B450" s="26"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="25"/>
+      <c r="B451" s="26"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="25"/>
+      <c r="B452" s="26"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B453" s="25"/>
+      <c r="B453" s="26"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="25"/>
+      <c r="B454" s="26"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="25"/>
+      <c r="B455" s="26"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B456" s="25"/>
+      <c r="B456" s="26"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="25"/>
+      <c r="B457" s="26"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="25"/>
+      <c r="B458" s="26"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="25"/>
+      <c r="B459" s="26"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="25"/>
+      <c r="B460" s="26"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B461" s="25"/>
+      <c r="B461" s="26"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B462" s="25"/>
+      <c r="B462" s="26"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="25"/>
+      <c r="B463" s="26"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B464" s="25"/>
+      <c r="B464" s="26"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B465" s="25"/>
+      <c r="B465" s="26"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B466" s="25"/>
+      <c r="B466" s="26"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="25"/>
+      <c r="B467" s="26"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="25"/>
+      <c r="B468" s="26"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B469" s="25"/>
+      <c r="B469" s="26"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="25"/>
+      <c r="B470" s="26"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B471" s="25"/>
+      <c r="B471" s="26"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B472" s="25"/>
+      <c r="B472" s="26"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="25"/>
+      <c r="B473" s="26"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B474" s="25"/>
+      <c r="B474" s="26"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="25"/>
+      <c r="B475" s="26"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B476" s="25"/>
+      <c r="B476" s="26"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B477" s="25"/>
+      <c r="B477" s="26"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="25"/>
+      <c r="B478" s="26"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="25"/>
+      <c r="B479" s="26"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="25"/>
+      <c r="B480" s="26"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B481" s="25"/>
+      <c r="B481" s="26"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="25"/>
+      <c r="B482" s="26"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B483" s="25"/>
+      <c r="B483" s="26"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B484" s="25"/>
+      <c r="B484" s="26"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B485" s="25"/>
+      <c r="B485" s="26"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B486" s="25"/>
+      <c r="B486" s="26"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="25"/>
+      <c r="B487" s="26"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B488" s="25"/>
+      <c r="B488" s="26"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B489" s="25"/>
+      <c r="B489" s="26"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B490" s="25"/>
+      <c r="B490" s="26"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B491" s="25"/>
+      <c r="B491" s="26"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="25"/>
+      <c r="B492" s="26"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="25"/>
+      <c r="B493" s="26"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="25"/>
+      <c r="B494" s="26"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="25"/>
+      <c r="B495" s="26"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="25"/>
+      <c r="B496" s="26"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="25"/>
+      <c r="B497" s="26"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="25"/>
+      <c r="B498" s="26"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="25"/>
+      <c r="B499" s="26"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="25"/>
+      <c r="B500" s="26"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="25"/>
+      <c r="B501" s="26"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="25"/>
+      <c r="B502" s="26"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="25"/>
+      <c r="B503" s="26"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="25"/>
+      <c r="B504" s="26"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="25"/>
+      <c r="B505" s="26"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="25"/>
+      <c r="B506" s="26"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="25"/>
+      <c r="B507" s="26"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="25"/>
+      <c r="B508" s="26"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="25"/>
+      <c r="B509" s="26"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="25"/>
+      <c r="B510" s="26"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="25"/>
+      <c r="B511" s="26"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="25"/>
+      <c r="B512" s="26"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="25"/>
+      <c r="B513" s="26"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="25"/>
+      <c r="B514" s="26"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="25"/>
+      <c r="B515" s="26"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="25"/>
+      <c r="B516" s="26"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="25"/>
+      <c r="B517" s="26"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="25"/>
+      <c r="B518" s="26"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="25"/>
+      <c r="B519" s="26"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="25"/>
+      <c r="B520" s="26"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="25"/>
+      <c r="B521" s="26"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="25"/>
+      <c r="B522" s="26"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="25"/>
+      <c r="B523" s="26"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="25"/>
+      <c r="B524" s="26"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="25"/>
+      <c r="B525" s="26"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="25"/>
+      <c r="B526" s="26"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="25"/>
+      <c r="B527" s="26"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="25"/>
+      <c r="B528" s="26"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="25"/>
+      <c r="B529" s="26"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="25"/>
+      <c r="B530" s="26"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="25"/>
+      <c r="B531" s="26"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="25"/>
+      <c r="B532" s="26"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="25"/>
+      <c r="B533" s="26"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="25"/>
+      <c r="B534" s="26"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="25"/>
+      <c r="B535" s="26"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="25"/>
+      <c r="B536" s="26"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="25"/>
+      <c r="B537" s="26"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="25"/>
+      <c r="B538" s="26"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="25"/>
+      <c r="B539" s="26"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="25"/>
+      <c r="B540" s="26"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="25"/>
+      <c r="B541" s="26"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="25"/>
+      <c r="B542" s="26"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="25"/>
+      <c r="B543" s="26"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="25"/>
+      <c r="B544" s="26"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="25"/>
+      <c r="B545" s="26"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="25"/>
+      <c r="B546" s="26"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="25"/>
+      <c r="B547" s="26"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="25"/>
+      <c r="B548" s="26"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="25"/>
+      <c r="B549" s="26"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="25"/>
+      <c r="B550" s="26"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="25"/>
+      <c r="B551" s="26"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="25"/>
+      <c r="B552" s="26"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="25"/>
+      <c r="B553" s="26"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="25"/>
+      <c r="B554" s="26"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="25"/>
+      <c r="B555" s="26"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="25"/>
+      <c r="B556" s="26"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="25"/>
+      <c r="B557" s="26"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="25"/>
+      <c r="B558" s="26"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="25"/>
+      <c r="B559" s="26"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B560" s="25"/>
+      <c r="B560" s="26"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B561" s="25"/>
+      <c r="B561" s="26"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B562" s="25"/>
+      <c r="B562" s="26"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B563" s="25"/>
+      <c r="B563" s="26"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B564" s="25"/>
+      <c r="B564" s="26"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B565" s="25"/>
+      <c r="B565" s="26"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B566" s="25"/>
+      <c r="B566" s="26"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B567" s="25"/>
+      <c r="B567" s="26"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B568" s="25"/>
+      <c r="B568" s="26"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B569" s="25"/>
+      <c r="B569" s="26"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B570" s="25"/>
+      <c r="B570" s="26"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B571" s="25"/>
+      <c r="B571" s="26"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B572" s="25"/>
+      <c r="B572" s="26"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B573" s="25"/>
+      <c r="B573" s="26"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B574" s="25"/>
+      <c r="B574" s="26"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B575" s="25"/>
+      <c r="B575" s="26"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B576" s="25"/>
+      <c r="B576" s="26"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B577" s="25"/>
+      <c r="B577" s="26"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B578" s="25"/>
+      <c r="B578" s="26"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B579" s="25"/>
+      <c r="B579" s="26"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B580" s="25"/>
+      <c r="B580" s="26"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B581" s="25"/>
+      <c r="B581" s="26"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B582" s="25"/>
+      <c r="B582" s="26"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B583" s="25"/>
+      <c r="B583" s="26"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B584" s="25"/>
+      <c r="B584" s="26"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B585" s="25"/>
+      <c r="B585" s="26"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B586" s="25"/>
+      <c r="B586" s="26"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B587" s="25"/>
+      <c r="B587" s="26"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B588" s="25"/>
+      <c r="B588" s="26"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B589" s="25"/>
+      <c r="B589" s="26"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B590" s="25"/>
+      <c r="B590" s="26"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B591" s="25"/>
+      <c r="B591" s="26"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B592" s="25"/>
+      <c r="B592" s="26"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B593" s="25"/>
+      <c r="B593" s="26"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B594" s="25"/>
+      <c r="B594" s="26"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B595" s="25"/>
+      <c r="B595" s="26"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B596" s="25"/>
+      <c r="B596" s="26"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B597" s="25"/>
+      <c r="B597" s="26"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B598" s="25"/>
+      <c r="B598" s="26"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B599" s="25"/>
+      <c r="B599" s="26"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B600" s="25"/>
+      <c r="B600" s="26"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B601" s="25"/>
+      <c r="B601" s="26"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B602" s="25"/>
+      <c r="B602" s="26"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B603" s="25"/>
+      <c r="B603" s="26"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B604" s="25"/>
+      <c r="B604" s="26"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B605" s="25"/>
+      <c r="B605" s="26"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B606" s="25"/>
+      <c r="B606" s="26"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B607" s="25"/>
+      <c r="B607" s="26"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B608" s="25"/>
+      <c r="B608" s="26"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B609" s="25"/>
+      <c r="B609" s="26"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B610" s="25"/>
+      <c r="B610" s="26"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B611" s="25"/>
+      <c r="B611" s="26"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B612" s="25"/>
+      <c r="B612" s="26"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B613" s="25"/>
+      <c r="B613" s="26"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B614" s="25"/>
+      <c r="B614" s="26"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B615" s="25"/>
+      <c r="B615" s="26"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B616" s="25"/>
+      <c r="B616" s="26"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B617" s="25"/>
+      <c r="B617" s="26"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B618" s="25"/>
+      <c r="B618" s="26"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B619" s="25"/>
+      <c r="B619" s="26"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B620" s="25"/>
+      <c r="B620" s="26"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B621" s="25"/>
+      <c r="B621" s="26"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B622" s="25"/>
+      <c r="B622" s="26"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B623" s="25"/>
+      <c r="B623" s="26"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B624" s="25"/>
+      <c r="B624" s="26"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B625" s="25"/>
+      <c r="B625" s="26"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B626" s="25"/>
+      <c r="B626" s="26"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B627" s="25"/>
+      <c r="B627" s="26"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B628" s="25"/>
+      <c r="B628" s="26"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B629" s="25"/>
+      <c r="B629" s="26"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B630" s="25"/>
+      <c r="B630" s="26"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B631" s="25"/>
+      <c r="B631" s="26"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B632" s="25"/>
+      <c r="B632" s="26"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B633" s="25"/>
+      <c r="B633" s="26"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B634" s="25"/>
+      <c r="B634" s="26"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B635" s="25"/>
+      <c r="B635" s="26"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B636" s="25"/>
+      <c r="B636" s="26"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B637" s="25"/>
+      <c r="B637" s="26"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B638" s="25"/>
+      <c r="B638" s="26"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B639" s="25"/>
+      <c r="B639" s="26"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B640" s="25"/>
+      <c r="B640" s="26"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B641" s="25"/>
+      <c r="B641" s="26"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B642" s="25"/>
+      <c r="B642" s="26"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B643" s="25"/>
+      <c r="B643" s="26"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B644" s="25"/>
+      <c r="B644" s="26"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B645" s="25"/>
+      <c r="B645" s="26"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B646" s="25"/>
+      <c r="B646" s="26"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B647" s="25"/>
+      <c r="B647" s="26"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B648" s="25"/>
+      <c r="B648" s="26"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B649" s="25"/>
+      <c r="B649" s="26"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B650" s="25"/>
+      <c r="B650" s="26"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B651" s="25"/>
+      <c r="B651" s="26"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B652" s="25"/>
+      <c r="B652" s="26"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B653" s="25"/>
+      <c r="B653" s="26"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B654" s="25"/>
+      <c r="B654" s="26"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B655" s="25"/>
+      <c r="B655" s="26"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B656" s="25"/>
+      <c r="B656" s="26"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B657" s="25"/>
+      <c r="B657" s="26"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B658" s="25"/>
+      <c r="B658" s="26"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B659" s="25"/>
+      <c r="B659" s="26"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B660" s="25"/>
+      <c r="B660" s="26"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B661" s="25"/>
+      <c r="B661" s="26"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B662" s="25"/>
+      <c r="B662" s="26"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B663" s="25"/>
+      <c r="B663" s="26"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B664" s="25"/>
+      <c r="B664" s="26"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B665" s="25"/>
+      <c r="B665" s="26"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B666" s="25"/>
+      <c r="B666" s="26"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B667" s="25"/>
+      <c r="B667" s="26"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="25"/>
+      <c r="B668" s="26"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B669" s="25"/>
+      <c r="B669" s="26"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B670" s="25"/>
+      <c r="B670" s="26"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B671" s="25"/>
+      <c r="B671" s="26"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B672" s="25"/>
+      <c r="B672" s="26"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B673" s="25"/>
+      <c r="B673" s="26"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B674" s="25"/>
+      <c r="B674" s="26"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="25"/>
+      <c r="B675" s="26"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="25"/>
+      <c r="B676" s="26"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B677" s="25"/>
+      <c r="B677" s="26"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B678" s="25"/>
+      <c r="B678" s="26"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B679" s="25"/>
+      <c r="B679" s="26"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B680" s="25"/>
+      <c r="B680" s="26"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B681" s="25"/>
+      <c r="B681" s="26"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B682" s="25"/>
+      <c r="B682" s="26"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B683" s="25"/>
+      <c r="B683" s="26"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B684" s="25"/>
+      <c r="B684" s="26"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B685" s="25"/>
+      <c r="B685" s="26"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B686" s="25"/>
+      <c r="B686" s="26"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B687" s="25"/>
+      <c r="B687" s="26"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B688" s="25"/>
+      <c r="B688" s="26"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B689" s="25"/>
+      <c r="B689" s="26"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B690" s="25"/>
+      <c r="B690" s="26"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B691" s="25"/>
+      <c r="B691" s="26"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="25"/>
+      <c r="B692" s="26"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="25"/>
+      <c r="B693" s="26"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="25"/>
+      <c r="B694" s="26"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="25"/>
+      <c r="B695" s="26"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="25"/>
+      <c r="B696" s="26"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="25"/>
+      <c r="B697" s="26"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="25"/>
+      <c r="B698" s="26"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="25"/>
+      <c r="B699" s="26"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="25"/>
+      <c r="B700" s="26"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="25"/>
+      <c r="B701" s="26"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B702" s="25"/>
+      <c r="B702" s="26"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B703" s="25"/>
+      <c r="B703" s="26"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B704" s="25"/>
+      <c r="B704" s="26"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B705" s="25"/>
+      <c r="B705" s="26"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B706" s="25"/>
+      <c r="B706" s="26"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B707" s="25"/>
+      <c r="B707" s="26"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B708" s="25"/>
+      <c r="B708" s="26"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B709" s="25"/>
+      <c r="B709" s="26"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B710" s="25"/>
+      <c r="B710" s="26"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B711" s="25"/>
+      <c r="B711" s="26"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B712" s="25"/>
+      <c r="B712" s="26"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B713" s="25"/>
+      <c r="B713" s="26"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B714" s="25"/>
+      <c r="B714" s="26"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B715" s="25"/>
+      <c r="B715" s="26"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B716" s="25"/>
+      <c r="B716" s="26"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B717" s="25"/>
+      <c r="B717" s="26"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B718" s="25"/>
+      <c r="B718" s="26"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B719" s="25"/>
+      <c r="B719" s="26"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B720" s="25"/>
+      <c r="B720" s="26"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B721" s="25"/>
+      <c r="B721" s="26"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B722" s="25"/>
+      <c r="B722" s="26"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B723" s="25"/>
+      <c r="B723" s="26"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B724" s="25"/>
+      <c r="B724" s="26"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B725" s="25"/>
+      <c r="B725" s="26"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B726" s="25"/>
+      <c r="B726" s="26"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B727" s="25"/>
+      <c r="B727" s="26"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B728" s="25"/>
+      <c r="B728" s="26"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B729" s="25"/>
+      <c r="B729" s="26"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B730" s="25"/>
+      <c r="B730" s="26"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B731" s="25"/>
+      <c r="B731" s="26"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B732" s="25"/>
+      <c r="B732" s="26"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B733" s="25"/>
+      <c r="B733" s="26"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B734" s="25"/>
+      <c r="B734" s="26"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B735" s="25"/>
+      <c r="B735" s="26"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B736" s="25"/>
+      <c r="B736" s="26"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B737" s="25"/>
+      <c r="B737" s="26"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B738" s="25"/>
+      <c r="B738" s="26"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B739" s="25"/>
+      <c r="B739" s="26"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B740" s="25"/>
+      <c r="B740" s="26"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B741" s="25"/>
+      <c r="B741" s="26"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B742" s="25"/>
+      <c r="B742" s="26"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B743" s="25"/>
+      <c r="B743" s="26"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B744" s="25"/>
+      <c r="B744" s="26"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B745" s="25"/>
+      <c r="B745" s="26"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B746" s="25"/>
+      <c r="B746" s="26"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B747" s="25"/>
+      <c r="B747" s="26"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B748" s="25"/>
+      <c r="B748" s="26"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B749" s="25"/>
+      <c r="B749" s="26"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B750" s="25"/>
+      <c r="B750" s="26"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B751" s="25"/>
+      <c r="B751" s="26"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B752" s="25"/>
+      <c r="B752" s="26"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B753" s="25"/>
+      <c r="B753" s="26"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B754" s="25"/>
+      <c r="B754" s="26"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B755" s="25"/>
+      <c r="B755" s="26"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B756" s="25"/>
+      <c r="B756" s="26"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B757" s="25"/>
+      <c r="B757" s="26"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B758" s="25"/>
+      <c r="B758" s="26"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B759" s="25"/>
+      <c r="B759" s="26"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B760" s="25"/>
+      <c r="B760" s="26"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B761" s="25"/>
+      <c r="B761" s="26"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B762" s="25"/>
+      <c r="B762" s="26"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B763" s="25"/>
+      <c r="B763" s="26"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B764" s="25"/>
+      <c r="B764" s="26"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B765" s="25"/>
+      <c r="B765" s="26"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B766" s="25"/>
+      <c r="B766" s="26"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B767" s="25"/>
+      <c r="B767" s="26"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B768" s="25"/>
+      <c r="B768" s="26"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B769" s="25"/>
+      <c r="B769" s="26"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B770" s="25"/>
+      <c r="B770" s="26"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B771" s="25"/>
+      <c r="B771" s="26"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B772" s="25"/>
+      <c r="B772" s="26"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B773" s="25"/>
+      <c r="B773" s="26"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B774" s="25"/>
+      <c r="B774" s="26"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B775" s="25"/>
+      <c r="B775" s="26"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B776" s="25"/>
+      <c r="B776" s="26"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B777" s="25"/>
+      <c r="B777" s="26"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B778" s="25"/>
+      <c r="B778" s="26"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B779" s="25"/>
+      <c r="B779" s="26"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B780" s="25"/>
+      <c r="B780" s="26"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B781" s="25"/>
+      <c r="B781" s="26"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B782" s="25"/>
+      <c r="B782" s="26"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B783" s="25"/>
+      <c r="B783" s="26"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B784" s="25"/>
+      <c r="B784" s="26"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B785" s="25"/>
+      <c r="B785" s="26"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B786" s="25"/>
+      <c r="B786" s="26"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B787" s="25"/>
+      <c r="B787" s="26"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B788" s="25"/>
+      <c r="B788" s="26"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B789" s="25"/>
+      <c r="B789" s="26"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B790" s="25"/>
+      <c r="B790" s="26"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B791" s="25"/>
+      <c r="B791" s="26"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B792" s="25"/>
+      <c r="B792" s="26"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B793" s="25"/>
+      <c r="B793" s="26"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B794" s="25"/>
+      <c r="B794" s="26"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B795" s="25"/>
+      <c r="B795" s="26"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B796" s="25"/>
+      <c r="B796" s="26"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B797" s="25"/>
+      <c r="B797" s="26"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B798" s="25"/>
+      <c r="B798" s="26"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B799" s="25"/>
+      <c r="B799" s="26"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B800" s="25"/>
+      <c r="B800" s="26"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B801" s="25"/>
+      <c r="B801" s="26"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B802" s="25"/>
+      <c r="B802" s="26"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B803" s="25"/>
+      <c r="B803" s="26"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B804" s="25"/>
+      <c r="B804" s="26"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B805" s="25"/>
+      <c r="B805" s="26"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B806" s="25"/>
+      <c r="B806" s="26"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B807" s="25"/>
+      <c r="B807" s="26"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B808" s="25"/>
+      <c r="B808" s="26"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B809" s="25"/>
+      <c r="B809" s="26"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B810" s="25"/>
+      <c r="B810" s="26"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B811" s="25"/>
+      <c r="B811" s="26"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B812" s="25"/>
+      <c r="B812" s="26"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B813" s="25"/>
+      <c r="B813" s="26"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B814" s="25"/>
+      <c r="B814" s="26"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B815" s="25"/>
+      <c r="B815" s="26"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B816" s="25"/>
+      <c r="B816" s="26"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B817" s="25"/>
+      <c r="B817" s="26"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B818" s="25"/>
+      <c r="B818" s="26"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B819" s="25"/>
+      <c r="B819" s="26"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B820" s="25"/>
+      <c r="B820" s="26"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B821" s="25"/>
+      <c r="B821" s="26"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B822" s="25"/>
+      <c r="B822" s="26"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B823" s="25"/>
+      <c r="B823" s="26"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B824" s="25"/>
+      <c r="B824" s="26"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B825" s="25"/>
+      <c r="B825" s="26"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B826" s="25"/>
+      <c r="B826" s="26"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B827" s="25"/>
+      <c r="B827" s="26"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B828" s="25"/>
+      <c r="B828" s="26"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B829" s="25"/>
+      <c r="B829" s="26"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B830" s="25"/>
+      <c r="B830" s="26"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B831" s="25"/>
+      <c r="B831" s="26"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B832" s="25"/>
+      <c r="B832" s="26"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B833" s="25"/>
+      <c r="B833" s="26"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B834" s="25"/>
+      <c r="B834" s="26"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B835" s="25"/>
+      <c r="B835" s="26"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B836" s="25"/>
+      <c r="B836" s="26"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B837" s="25"/>
+      <c r="B837" s="26"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B838" s="25"/>
+      <c r="B838" s="26"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B839" s="25"/>
+      <c r="B839" s="26"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B840" s="25"/>
+      <c r="B840" s="26"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B841" s="25"/>
+      <c r="B841" s="26"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B842" s="25"/>
+      <c r="B842" s="26"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B843" s="25"/>
+      <c r="B843" s="26"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B844" s="25"/>
+      <c r="B844" s="26"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B845" s="25"/>
+      <c r="B845" s="26"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B846" s="25"/>
+      <c r="B846" s="26"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B847" s="25"/>
+      <c r="B847" s="26"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B848" s="25"/>
+      <c r="B848" s="26"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B849" s="25"/>
+      <c r="B849" s="26"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B850" s="25"/>
+      <c r="B850" s="26"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B851" s="25"/>
+      <c r="B851" s="26"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B852" s="25"/>
+      <c r="B852" s="26"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B853" s="25"/>
+      <c r="B853" s="26"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B854" s="25"/>
+      <c r="B854" s="26"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B855" s="25"/>
+      <c r="B855" s="26"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B856" s="25"/>
+      <c r="B856" s="26"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B857" s="25"/>
+      <c r="B857" s="26"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B858" s="25"/>
+      <c r="B858" s="26"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B859" s="25"/>
+      <c r="B859" s="26"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B860" s="25"/>
+      <c r="B860" s="26"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B861" s="25"/>
+      <c r="B861" s="26"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B862" s="25"/>
+      <c r="B862" s="26"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B863" s="25"/>
+      <c r="B863" s="26"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B864" s="25"/>
+      <c r="B864" s="26"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B865" s="25"/>
+      <c r="B865" s="26"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B866" s="25"/>
+      <c r="B866" s="26"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B867" s="25"/>
+      <c r="B867" s="26"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B868" s="25"/>
+      <c r="B868" s="26"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B869" s="25"/>
+      <c r="B869" s="26"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B870" s="25"/>
+      <c r="B870" s="26"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B871" s="25"/>
+      <c r="B871" s="26"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B872" s="25"/>
+      <c r="B872" s="26"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B873" s="25"/>
+      <c r="B873" s="26"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B874" s="25"/>
+      <c r="B874" s="26"/>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B875" s="25"/>
+      <c r="B875" s="26"/>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B876" s="25"/>
+      <c r="B876" s="26"/>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B877" s="25"/>
+      <c r="B877" s="26"/>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B878" s="25"/>
+      <c r="B878" s="26"/>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B879" s="25"/>
+      <c r="B879" s="26"/>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B880" s="25"/>
+      <c r="B880" s="26"/>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B881" s="25"/>
+      <c r="B881" s="26"/>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B882" s="25"/>
+      <c r="B882" s="26"/>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B883" s="25"/>
+      <c r="B883" s="26"/>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B884" s="25"/>
+      <c r="B884" s="26"/>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B885" s="25"/>
+      <c r="B885" s="26"/>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B886" s="25"/>
+      <c r="B886" s="26"/>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B887" s="25"/>
+      <c r="B887" s="26"/>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B888" s="25"/>
+      <c r="B888" s="26"/>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B889" s="25"/>
+      <c r="B889" s="26"/>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B890" s="25"/>
+      <c r="B890" s="26"/>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B891" s="25"/>
+      <c r="B891" s="26"/>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B892" s="25"/>
+      <c r="B892" s="26"/>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B893" s="25"/>
+      <c r="B893" s="26"/>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B894" s="25"/>
+      <c r="B894" s="26"/>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B895" s="25"/>
+      <c r="B895" s="26"/>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B896" s="25"/>
+      <c r="B896" s="26"/>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B897" s="25"/>
+      <c r="B897" s="26"/>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B898" s="25"/>
+      <c r="B898" s="26"/>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B899" s="25"/>
+      <c r="B899" s="26"/>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B900" s="25"/>
+      <c r="B900" s="26"/>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B901" s="25"/>
+      <c r="B901" s="26"/>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B902" s="25"/>
+      <c r="B902" s="26"/>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B903" s="25"/>
+      <c r="B903" s="26"/>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B904" s="25"/>
+      <c r="B904" s="26"/>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B905" s="25"/>
+      <c r="B905" s="26"/>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B906" s="25"/>
+      <c r="B906" s="26"/>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B907" s="25"/>
+      <c r="B907" s="26"/>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B908" s="25"/>
+      <c r="B908" s="26"/>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B909" s="25"/>
+      <c r="B909" s="26"/>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B910" s="25"/>
+      <c r="B910" s="26"/>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B911" s="25"/>
+      <c r="B911" s="26"/>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B912" s="25"/>
+      <c r="B912" s="26"/>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B913" s="25"/>
+      <c r="B913" s="26"/>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B914" s="25"/>
+      <c r="B914" s="26"/>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B915" s="25"/>
+      <c r="B915" s="26"/>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B916" s="25"/>
+      <c r="B916" s="26"/>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B917" s="25"/>
+      <c r="B917" s="26"/>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B918" s="25"/>
+      <c r="B918" s="26"/>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B919" s="25"/>
+      <c r="B919" s="26"/>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B920" s="25"/>
+      <c r="B920" s="26"/>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B921" s="25"/>
+      <c r="B921" s="26"/>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B922" s="25"/>
+      <c r="B922" s="26"/>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B923" s="25"/>
+      <c r="B923" s="26"/>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B924" s="25"/>
+      <c r="B924" s="26"/>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B925" s="25"/>
+      <c r="B925" s="26"/>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B926" s="25"/>
+      <c r="B926" s="26"/>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B927" s="25"/>
+      <c r="B927" s="26"/>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B928" s="25"/>
+      <c r="B928" s="26"/>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B929" s="25"/>
+      <c r="B929" s="26"/>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B930" s="25"/>
+      <c r="B930" s="26"/>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B931" s="25"/>
+      <c r="B931" s="26"/>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B932" s="25"/>
+      <c r="B932" s="26"/>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B933" s="25"/>
+      <c r="B933" s="26"/>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B934" s="25"/>
+      <c r="B934" s="26"/>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B935" s="25"/>
+      <c r="B935" s="26"/>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B936" s="25"/>
+      <c r="B936" s="26"/>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B937" s="25"/>
+      <c r="B937" s="26"/>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B938" s="25"/>
+      <c r="B938" s="26"/>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B939" s="25"/>
+      <c r="B939" s="26"/>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B940" s="25"/>
+      <c r="B940" s="26"/>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B941" s="25"/>
+      <c r="B941" s="26"/>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B942" s="25"/>
+      <c r="B942" s="26"/>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B943" s="25"/>
+      <c r="B943" s="26"/>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B944" s="25"/>
+      <c r="B944" s="26"/>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B945" s="25"/>
+      <c r="B945" s="26"/>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B946" s="25"/>
+      <c r="B946" s="26"/>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B947" s="25"/>
+      <c r="B947" s="26"/>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B948" s="25"/>
+      <c r="B948" s="26"/>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B949" s="25"/>
+      <c r="B949" s="26"/>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B950" s="25"/>
+      <c r="B950" s="26"/>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B951" s="25"/>
+      <c r="B951" s="26"/>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B952" s="25"/>
+      <c r="B952" s="26"/>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B953" s="25"/>
+      <c r="B953" s="26"/>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B954" s="25"/>
+      <c r="B954" s="26"/>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B955" s="25"/>
+      <c r="B955" s="26"/>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B956" s="25"/>
+      <c r="B956" s="26"/>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B957" s="25"/>
+      <c r="B957" s="26"/>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B958" s="25"/>
+      <c r="B958" s="26"/>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B959" s="25"/>
+      <c r="B959" s="26"/>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B960" s="25"/>
+      <c r="B960" s="26"/>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B961" s="25"/>
+      <c r="B961" s="26"/>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B962" s="25"/>
+      <c r="B962" s="26"/>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B963" s="25"/>
+      <c r="B963" s="26"/>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B964" s="25"/>
+      <c r="B964" s="26"/>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B965" s="25"/>
+      <c r="B965" s="26"/>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B966" s="25"/>
+      <c r="B966" s="26"/>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B967" s="25"/>
+      <c r="B967" s="26"/>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B968" s="25"/>
+      <c r="B968" s="26"/>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B969" s="25"/>
+      <c r="B969" s="26"/>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B970" s="25"/>
+      <c r="B970" s="26"/>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B971" s="25"/>
+      <c r="B971" s="26"/>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B972" s="25"/>
+      <c r="B972" s="26"/>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B973" s="25"/>
+      <c r="B973" s="26"/>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B974" s="25"/>
+      <c r="B974" s="26"/>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B975" s="25"/>
+      <c r="B975" s="26"/>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B976" s="25"/>
+      <c r="B976" s="26"/>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B977" s="25"/>
+      <c r="B977" s="26"/>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B978" s="25"/>
+      <c r="B978" s="26"/>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B979" s="25"/>
+      <c r="B979" s="26"/>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B980" s="25"/>
+      <c r="B980" s="26"/>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B981" s="25"/>
+      <c r="B981" s="26"/>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B982" s="25"/>
+      <c r="B982" s="26"/>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B983" s="25"/>
+      <c r="B983" s="26"/>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B984" s="25"/>
+      <c r="B984" s="26"/>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B985" s="25"/>
+      <c r="B985" s="26"/>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B986" s="25"/>
+      <c r="B986" s="26"/>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B987" s="25"/>
+      <c r="B987" s="26"/>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B988" s="25"/>
+      <c r="B988" s="26"/>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B989" s="25"/>
+      <c r="B989" s="26"/>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B990" s="25"/>
+      <c r="B990" s="26"/>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B991" s="25"/>
+      <c r="B991" s="26"/>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B992" s="25"/>
+      <c r="B992" s="26"/>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B993" s="25"/>
+      <c r="B993" s="26"/>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B994" s="25"/>
+      <c r="B994" s="26"/>
     </row>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B995" s="25"/>
+      <c r="B995" s="26"/>
     </row>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B996" s="25"/>
+      <c r="B996" s="26"/>
     </row>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B997" s="25"/>
+      <c r="B997" s="26"/>
     </row>
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B998" s="25"/>
+      <c r="B998" s="26"/>
     </row>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B999" s="25"/>
+      <c r="B999" s="26"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7530,11 +7551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
@@ -7542,75 +7563,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>183</v>
+      <c r="A2" s="31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>184</v>
+      <c r="A3" s="31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>185</v>
+      <c r="A4" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>186</v>
+      <c r="A5" s="31" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>187</v>
+      <c r="A6" s="31" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>188</v>
+      <c r="A7" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>189</v>
+      <c r="A8" s="31" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>190</v>
+      <c r="A9" s="31" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>191</v>
+      <c r="A10" s="31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>192</v>
+      <c r="A11" s="31" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="29"/>
+      <c r="A12" s="32" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="196">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2594,6 +2594,9 @@
   </si>
   <si>
     <t xml:space="preserve">39. Сумма престановок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40. сумма перестановок2</t>
   </si>
   <si>
     <t xml:space="preserve">41. firstMissingPositive</t>
@@ -3263,10 +3266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4530,139 +4533,121 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" s="4" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="18" t="n">
+      <c r="B41" s="26" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="18" t="n">
         <v>44562</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="4" t="n">
+      <c r="D42" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I42" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="26" t="n">
+        <v>44579</v>
+      </c>
+      <c r="D43" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="J41" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="26" t="n">
-        <v>44579</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="1" t="n">
+      <c r="E43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" s="22" t="s">
+      <c r="I43" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="26" t="n">
+      <c r="J43" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="26" t="n">
         <v>44588</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="22" t="s">
+      <c r="C44" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="26" t="n">
-        <v>44824</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>175</v>
+      <c r="I44" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="26" t="n">
-        <v>44915</v>
+        <v>44824</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>178</v>
+        <v>3</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B46" s="26" t="n">
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>19</v>
@@ -4670,15 +4655,44 @@
       <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I46" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="26" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="D47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="26"/>
+      <c r="J47" s="22" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="26"/>
@@ -7538,6 +7552,9 @@
     </row>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1000" s="26"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1001" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7568,63 +7585,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="197">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2734,6 +2734,9 @@
       </rPr>
       <t xml:space="preserve">29.25%</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">44 isMatch</t>
   </si>
   <si>
     <t xml:space="preserve">5 часов</t>
@@ -3269,7 +3272,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4600,25 +4603,28 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B44" s="26" t="n">
-        <v>44588</v>
+        <v>44958</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="26" t="n">
         <v>44824</v>
@@ -4633,15 +4639,15 @@
         <v>3</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="26" t="n">
         <v>44915</v>
@@ -4665,21 +4671,21 @@
         <v>20</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" s="26" t="n">
         <v>44915</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>19</v>
@@ -4688,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7585,63 +7591,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="200">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2834,6 +2834,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory 14 MB Beats 96.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48. переверни картинку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 ms Beats 56.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory 13.3 MB Beats 76.77%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3271,8 +3280,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4701,7 +4710,24 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="26"/>
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="26" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="26"/>
@@ -7591,63 +7617,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2843,6 +2843,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory 13.3 MB Beats 76.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49. Group Anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 msBeats91.42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory17.7 MBBeats62.25%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -2885,11 +2894,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mmm"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -3068,7 +3078,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3185,6 +3195,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3287,6 +3305,7 @@
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
@@ -4729,8 +4748,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="30" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="26"/>
@@ -7616,64 +7652,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>189</v>
+      <c r="A2" s="33" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>190</v>
+      <c r="A3" s="33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>191</v>
+      <c r="A4" s="33" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>192</v>
+      <c r="A5" s="33" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>193</v>
+      <c r="A6" s="33" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>194</v>
+      <c r="A7" s="33" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>195</v>
+      <c r="A8" s="33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>196</v>
+      <c r="A9" s="33" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>197</v>
+      <c r="A10" s="33" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>198</v>
+      <c r="A11" s="33" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>199</v>
+      <c r="A12" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="206">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2852,6 +2852,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory17.7 MBBeats62.25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. Возведение в степеь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 msBeats23.51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory13.4 MBBeats48.59%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3299,7 +3308,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
+      <selection pane="topLeft" activeCell="J50" activeCellId="0" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4769,7 +4778,24 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="26"/>
+      <c r="A50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="26" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="26"/>
@@ -7653,63 +7679,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="212">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2861,6 +2861,24 @@
   </si>
   <si>
     <t xml:space="preserve">Memory13.4 MBBeats48.59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 ферзей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 msBeats39.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory13.8 MBBeats67.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 фрзи-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 msBeats23.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory13.6 MBBeats15.34%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -2910,7 +2928,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2993,6 +3011,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="22"/>
@@ -3087,7 +3111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3213,6 +3237,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3220,11 +3248,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3307,8 +3335,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J50" activeCellId="0" sqref="J50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4798,10 +4826,44 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="26"/>
+      <c r="A51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="26" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="26"/>
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="26" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="26"/>
@@ -7678,64 +7740,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>195</v>
+      <c r="A2" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>196</v>
+      <c r="A3" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>197</v>
+      <c r="A4" s="34" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>198</v>
+      <c r="A5" s="34" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>199</v>
+      <c r="A6" s="34" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>200</v>
+      <c r="A7" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>201</v>
+      <c r="A8" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>202</v>
+      <c r="A9" s="34" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>203</v>
+      <c r="A10" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>204</v>
+      <c r="A11" s="34" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>205</v>
+      <c r="A12" s="35" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -2872,7 +2872,7 @@
     <t xml:space="preserve">Memory13.8 MBBeats67.58</t>
   </si>
   <si>
-    <t xml:space="preserve">52 фрзи-2</t>
+    <t xml:space="preserve">52 ферзи-2</t>
   </si>
   <si>
     <t xml:space="preserve">73 msBeats23.86%</t>
@@ -3336,7 +3336,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2879,6 +2879,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory13.6 MBBeats15.34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 максимальный подмассив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime534 msBeats88.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory26.5 MBBeats21.12%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3335,8 +3344,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4866,7 +4875,24 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="26"/>
+      <c r="A53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="26" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="26"/>
@@ -7741,63 +7767,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="218">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2888,6 +2888,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory26.5 MBBeats21.12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 спиральная матрица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 msBeats32.35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory13.6 MBBeats20.68%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3345,7 +3354,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
+      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4895,7 +4904,24 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="26"/>
+      <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="26" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="26"/>
@@ -7767,63 +7793,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="221">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2897,6 +2897,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory13.6 MBBeats20.68%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 jump game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime353 msBeats95.85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory14.6 MBBeats51.95%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3353,8 +3362,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4783,7 +4792,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
@@ -4796,14 +4805,14 @@
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
         <v>188</v>
       </c>
@@ -4816,14 +4825,14 @@
       <c r="D49" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>191</v>
       </c>
@@ -4836,14 +4845,14 @@
       <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I50" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -4856,14 +4865,14 @@
       <c r="D51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="J51" s="22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -4876,14 +4885,14 @@
       <c r="D52" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="I52" s="29" t="s">
+      <c r="I52" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
@@ -4896,14 +4905,14 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="29" t="s">
+      <c r="J53" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>203</v>
       </c>
@@ -4916,15 +4925,32 @@
       <c r="D54" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="26"/>
+    <row r="55" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="26" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="26"/>
@@ -7793,63 +7819,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="224">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2906,6 +2906,15 @@
   </si>
   <si>
     <t xml:space="preserve">Memory14.6 MBBeats51.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 merge interrvals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime918 msBeats5.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory18 MBBeats97.42%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3362,8 +3371,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3375,8 +3384,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="44.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,7 +4962,24 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="26"/>
+      <c r="A56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="26" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="26"/>
@@ -7819,63 +7845,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="228">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2915,6 +2915,18 @@
   </si>
   <si>
     <t xml:space="preserve">Memory18 MBBeats97.42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57_insert_Interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime63 msBeats38.71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory16.6 MBBeats96.8%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -3372,7 +3384,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4961,7 +4973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>209</v>
       </c>
@@ -4974,15 +4986,32 @@
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="J56" s="22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="26"/>
+    <row r="57" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="26" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="26"/>
@@ -7845,63 +7874,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/SWEpreparation.xlsx
+++ b/SWEpreparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="232">
   <si>
     <t xml:space="preserve">problem</t>
   </si>
@@ -2927,6 +2927,18 @@
   </si>
   <si>
     <t xml:space="preserve">Memory16.6 MBBeats96.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 Длина последнего слова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime17 msBeats61.74%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory13.7 MBBeats32.59%</t>
   </si>
   <si>
     <t xml:space="preserve">Памятка</t>
@@ -2976,7 +2988,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3059,12 +3071,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="22"/>
@@ -3276,19 +3282,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3296,11 +3302,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3384,13 +3390,13 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
+      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
@@ -4903,7 +4909,7 @@
       <c r="C52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="3" t="s">
         <v>165</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -5014,7 +5020,24 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26"/>
+      <c r="A58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="26" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="26"/>
@@ -7864,7 +7887,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="J58 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7874,63 +7897,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
